--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value936.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value936.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.450085028486406</v>
+        <v>1.394083738327026</v>
       </c>
       <c r="B1">
-        <v>2.345816021079518</v>
+        <v>-1</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.647974944220483</v>
+        <v>0.6106066107749939</v>
       </c>
       <c r="E1">
-        <v>0.6319903724861083</v>
+        <v>0.7965743541717529</v>
       </c>
     </row>
   </sheetData>
